--- a/Forms/ReportTemplates/WCE.xlsx
+++ b/Forms/ReportTemplates/WCE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA8F9D-781C-44B4-A29F-049AEFCCBB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF9B83-D279-44A0-BA12-21D5A34F6249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="22395" windowHeight="13920" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,56 +465,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Forms/ReportTemplates/WCE.xlsx
+++ b/Forms/ReportTemplates/WCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF9B83-D279-44A0-BA12-21D5A34F6249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15ACC40-C8F9-409D-B544-6B3528AF72CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8976" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>wceQ6</t>
   </si>
   <si>
-    <t>wceQ7</t>
-  </si>
-  <si>
     <t>1. Completed Breast Self Examination station?</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>5. Registered for Mammogram under NHGD?</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -438,34 +432,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC5F2F1-36A0-4965-BAA8-67364BD15367}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,11 +481,8 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,22 +490,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
